--- a/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Lithuania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F01E68-BBA1-4DE1-A1D1-280430A61492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51DB09B-10BA-4124-8819-EB2D6DC9B87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -893,7 +893,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1184,7 +1184,7 @@
         <v>25</v>
       </c>
       <c r="H11" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7" t="str">
         <f t="shared" ref="I11" si="1">IF(OR(AND(H11&gt;1,H11&lt;&gt;"-")),"Can exchange","")</f>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="H12" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7" t="str">
         <f t="shared" ref="I12:I13" si="2">IF(OR(AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
@@ -1238,7 +1238,7 @@
         <v>25</v>
       </c>
       <c r="H13" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7" t="str">
         <f t="shared" si="2"/>
@@ -1264,7 +1264,7 @@
         <v>25</v>
       </c>
       <c r="H14" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7" t="str">
         <f t="shared" ref="I14:I17" si="3">IF(OR(AND(H14&gt;1,H14&lt;&gt;"-")),"Can exchange","")</f>
@@ -1343,7 +1343,7 @@
         <v>24</v>
       </c>
       <c r="H17" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7" t="str">
         <f t="shared" si="3"/>
@@ -1369,7 +1369,7 @@
         <v>47</v>
       </c>
       <c r="H18" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7" t="str">
         <f t="shared" ref="I18" si="4">IF(OR(AND(H18&gt;1,H18&lt;&gt;"-")),"Can exchange","")</f>
@@ -1395,7 +1395,7 @@
         <v>25</v>
       </c>
       <c r="H19" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7" t="str">
         <f t="shared" ref="I19" si="5">IF(OR(AND(H19&gt;1,H19&lt;&gt;"-")),"Can exchange","")</f>

--- a/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Lithuania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51DB09B-10BA-4124-8819-EB2D6DC9B87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3129135C-BCC9-443C-80A7-1421D01A16D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t>Year</t>
   </si>
@@ -91,12 +91,6 @@
     <t>2€</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -178,9 +172,6 @@
     <t>Rev: new map of Europe</t>
   </si>
   <si>
-    <t>Subtype_3</t>
-  </si>
-  <si>
     <t>Lithuanian Ethnographic Regions</t>
   </si>
   <si>
@@ -224,6 +215,24 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>European Union flag</t>
+  </si>
+  <si>
+    <t>Erasmus Programme</t>
+  </si>
+  <si>
+    <t>The 100th anniversary of the foundation of the independent Baltic states</t>
   </si>
 </sst>
 </file>
@@ -893,13 +902,13 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="47.6328125" style="8" customWidth="1"/>
     <col min="3" max="4" width="24.54296875" style="8" customWidth="1"/>
     <col min="5" max="6" width="24.81640625" style="8" customWidth="1"/>
     <col min="7" max="7" width="12.453125" style="8" customWidth="1"/>
@@ -914,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>1</v>
@@ -934,22 +943,22 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -958,18 +967,18 @@
         <v>2015</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" s="18">
         <v>1</v>
@@ -984,18 +993,20 @@
         <v>2015</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="D4" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" s="18">
         <v>1</v>
@@ -1010,18 +1021,18 @@
         <v>2016</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="18">
         <v>1</v>
@@ -1036,18 +1047,18 @@
         <v>2017</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="18">
         <v>1</v>
@@ -1062,18 +1073,20 @@
         <v>2018</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" s="18">
         <v>1</v>
@@ -1088,18 +1101,18 @@
         <v>2018</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H8" s="18">
         <v>1</v>
@@ -1114,18 +1127,18 @@
         <v>2019</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H9" s="18">
         <v>1</v>
@@ -1140,20 +1153,20 @@
         <v>2019</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H10" s="18">
         <v>1</v>
@@ -1168,20 +1181,20 @@
         <v>2020</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H11" s="18">
         <v>1</v>
@@ -1196,18 +1209,18 @@
         <v>2020</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H12" s="18">
         <v>1</v>
@@ -1222,20 +1235,20 @@
         <v>2021</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H13" s="18">
         <v>1</v>
@@ -1250,18 +1263,18 @@
         <v>2021</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H14" s="18">
         <v>1</v>
@@ -1276,23 +1289,23 @@
         <v>2021</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G15" s="17">
         <v>500</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7"/>
     </row>
@@ -1301,20 +1314,20 @@
         <v>2022</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H16" s="18">
         <v>1</v>
@@ -1329,18 +1342,18 @@
         <v>2022</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H17" s="18">
         <v>1</v>
@@ -1355,18 +1368,20 @@
         <v>2022</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>50</v>
+      </c>
       <c r="D18" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H18" s="18">
         <v>1</v>
@@ -1381,18 +1396,18 @@
         <v>2023</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H19" s="18">
         <v>1</v>
@@ -1592,13 +1607,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1606,10 +1621,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1617,10 +1632,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1628,10 +1643,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1639,10 +1654,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1650,10 +1665,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1661,10 +1676,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Lithuania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3129135C-BCC9-443C-80A7-1421D01A16D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31774B63-53BD-4F2C-A299-C841B74806A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="1110" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
   <si>
     <t>Year</t>
   </si>
@@ -300,7 +300,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,6 +334,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +437,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
@@ -515,6 +521,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -522,7 +531,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -625,9 +642,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -902,7 +919,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1413,7 +1430,37 @@
         <v>1</v>
       </c>
       <c r="I19" s="7" t="str">
-        <f t="shared" ref="I19" si="5">IF(OR(AND(H19&gt;1,H19&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I19:I20" si="5">IF(OR(AND(H19&gt;1,H19&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="22">
+        <v>2024</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -1432,11 +1479,28 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H10">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H10">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
     <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H10">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1448,12 +1512,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H12">
     <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1465,13 +1529,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1482,12 +1546,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="H14:H15">
     <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H15">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1499,12 +1563,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
+  <conditionalFormatting sqref="H16">
     <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1516,13 +1580,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="H19">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1533,13 +1597,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="H17">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1550,12 +1614,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+  <conditionalFormatting sqref="H18">
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1567,13 +1631,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>

--- a/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Lithuania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31774B63-53BD-4F2C-A299-C841B74806A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E895DE3-491F-4D31-A77C-F87079A309E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1110" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
   <si>
     <t>Year</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>The 100th anniversary of the foundation of the independent Baltic states</t>
+  </si>
+  <si>
+    <t>Straw Gardens</t>
   </si>
 </sst>
 </file>
@@ -300,7 +303,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,12 +337,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +434,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
@@ -521,9 +518,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -531,7 +525,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -548,6 +542,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -919,7 +921,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1438,29 +1440,25 @@
       <c r="A20" s="22">
         <v>2024</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>42</v>
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="18">
+        <v>1</v>
       </c>
       <c r="I20" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I20" si="6">IF(OR(AND(H20&gt;1,H20&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1479,11 +1477,28 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H10">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H10">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
     <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H10">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1495,12 +1510,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H12">
     <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1512,13 +1527,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1529,12 +1544,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="H14:H15">
     <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H15">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1546,12 +1561,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
+  <conditionalFormatting sqref="H16">
     <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1563,13 +1578,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="H19">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1580,13 +1595,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="H17">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1597,30 +1612,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+  <conditionalFormatting sqref="H18">
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
     <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1659,7 +1657,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Lithuania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E895DE3-491F-4D31-A77C-F87079A309E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA86094-5720-4F89-82FA-93B0A4C62277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
   <si>
     <t>Year</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Straw Gardens</t>
+  </si>
+  <si>
+    <t>National Defense</t>
   </si>
 </sst>
 </file>
@@ -921,7 +924,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1432,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="7" t="str">
-        <f t="shared" ref="I19:I20" si="5">IF(OR(AND(H19&gt;1,H19&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I19" si="5">IF(OR(AND(H19&gt;1,H19&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1459,6 +1462,32 @@
       </c>
       <c r="I20" s="7" t="str">
         <f t="shared" ref="I20" si="6">IF(OR(AND(H20&gt;1,H20&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" ref="I21" si="7">IF(OR(AND(H21&gt;1,H21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1477,11 +1506,28 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H10">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H10">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsText" dxfId="12" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1493,12 +1539,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="11" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1510,13 +1556,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1527,12 +1573,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="H14:H15">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H15">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1544,12 +1590,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1561,13 +1607,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="H19">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1578,13 +1624,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="H17">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1595,12 +1641,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+  <conditionalFormatting sqref="H18">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1612,13 +1658,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1629,12 +1675,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
+  <conditionalFormatting sqref="H21">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Lithuania/#EURO#Lithuania#Commemorative#[2015-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Lithuania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA86094-5720-4F89-82FA-93B0A4C62277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E057ABB3-78F9-431C-BBA5-F246D40B8922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$G$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -202,9 +205,6 @@
     <t>Together with Ukraine</t>
   </si>
   <si>
-    <t>Subtype_4</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -220,9 +220,6 @@
     <t>Subtype_1#Series</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol</t>
-  </si>
-  <si>
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
@@ -239,6 +236,12 @@
   </si>
   <si>
     <t>National Defense</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_4#Special_distinctions_1</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
@@ -504,6 +507,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,14 +536,6 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -545,6 +543,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -647,9 +653,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -924,35 +930,32 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="47.6328125" style="8" customWidth="1"/>
-    <col min="3" max="4" width="24.54296875" style="8" customWidth="1"/>
-    <col min="5" max="6" width="24.81640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="8" customWidth="1"/>
+    <col min="3" max="6" width="33.6328125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="8" customWidth="1"/>
     <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
       <c r="G1" s="19" t="s">
         <v>2</v>
       </c>
@@ -962,19 +965,21 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>18</v>
@@ -1018,7 +1023,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>29</v>
@@ -1095,7 +1100,7 @@
         <v>2018</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>20</v>
@@ -1321,13 +1326,13 @@
         <v>30</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="17">
         <v>500</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="7"/>
     </row>
@@ -1393,7 +1398,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>29</v>
@@ -1403,7 +1408,7 @@
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="18">
         <v>1</v>
@@ -1444,7 +1449,7 @@
         <v>2024</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23" t="s">
@@ -1470,7 +1475,7 @@
         <v>2025</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23" t="s">
@@ -1500,9 +1505,9 @@
       <c r="S32" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H10">
@@ -1676,7 +1681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
   </conditionalFormatting>
